--- a/DataTables/DataDaubar2019.xlsx
+++ b/DataTables/DataDaubar2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jae4518\OneDrive - Imperial College London\HiRise_Images_Clusters\ClustersDataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/731fb941f3e8f028/Documents/GitHub/CraterClusterTools/DataTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{96C25BAA-56BB-40EC-8255-0235D2DDE3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E58F4C6-FB1B-4377-A4B6-70FD0650B449}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B7EEAFC-F794-124C-9125-8E7EB9F70F4C}"/>
+    <workbookView xWindow="495" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3B7EEAFC-F794-124C-9125-8E7EB9F70F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplemental Table 1" sheetId="1" r:id="rId1"/>
@@ -53563,7 +53563,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -53579,7 +53579,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63">
+    <row r="1" spans="1:12" ht="47.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56189,18 +56189,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56223,6 +56223,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A18273A-D17C-4C06-B5B5-DA79E01BE9B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F0BCEF-5592-496E-9330-219E468D1D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="313b0b18-10e6-42bc-b4b2-ca03fa93f4c3"/>
@@ -56237,12 +56245,4 @@
     <ds:schemaRef ds:uri="377cdaf1-a217-4314-b626-51b00dc3e5da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A18273A-D17C-4C06-B5B5-DA79E01BE9B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>